--- a/data spreadsheets/winner.xlsx
+++ b/data spreadsheets/winner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafar\Documents\GitHub\cinefile\data spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A2A7B0-CEF0-4E2B-B0BE-48EEFE183947}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B0B996-0CC3-42A9-899C-3CD18D15F58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58470" yWindow="12480" windowWidth="14250" windowHeight="1830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70380" yWindow="1575" windowWidth="13005" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>id</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>award</t>
-  </si>
-  <si>
-    <t>2019 or 2020</t>
   </si>
 </sst>
 </file>
@@ -365,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -391,6 +388,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>1929</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -403,6 +403,9 @@
         <f xml:space="preserve"> A2 + 1</f>
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>1930</v>
+      </c>
       <c r="C3">
         <f xml:space="preserve"> C2 + 1</f>
         <v>2</v>
@@ -416,6 +419,9 @@
         <f xml:space="preserve"> A3 + 1</f>
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>1931</v>
+      </c>
       <c r="C4">
         <f xml:space="preserve"> C3 + 1</f>
         <v>3</v>
@@ -429,6 +435,9 @@
         <f t="shared" ref="A5:A68" si="0" xml:space="preserve"> A4 + 1</f>
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>1932</v>
+      </c>
       <c r="C5">
         <f t="shared" ref="C5:C68" si="1" xml:space="preserve"> C4 + 1</f>
         <v>4</v>
@@ -442,6 +451,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>1933</v>
+      </c>
       <c r="C6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -455,6 +467,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>1934</v>
+      </c>
       <c r="C7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -468,6 +483,9 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1935</v>
+      </c>
       <c r="C8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -481,6 +499,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1936</v>
+      </c>
       <c r="C9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -494,6 +515,9 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>1937</v>
+      </c>
       <c r="C10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -507,6 +531,9 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>1938</v>
+      </c>
       <c r="C11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -520,6 +547,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>1939</v>
+      </c>
       <c r="C12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -533,6 +563,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>1940</v>
+      </c>
       <c r="C13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -546,6 +579,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>1941</v>
+      </c>
       <c r="C14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -559,6 +595,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>1942</v>
+      </c>
       <c r="C15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -572,6 +611,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>1943</v>
+      </c>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -585,6 +627,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>1944</v>
+      </c>
       <c r="C17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -598,6 +643,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>1945</v>
+      </c>
       <c r="C18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -611,6 +659,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>1946</v>
+      </c>
       <c r="C19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -624,6 +675,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>1947</v>
+      </c>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -637,6 +691,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>1948</v>
+      </c>
       <c r="C21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -650,6 +707,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>1949</v>
+      </c>
       <c r="C22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -663,6 +723,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>1950</v>
+      </c>
       <c r="C23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -676,6 +739,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>1951</v>
+      </c>
       <c r="C24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -689,6 +755,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>1952</v>
+      </c>
       <c r="C25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -702,6 +771,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>1953</v>
+      </c>
       <c r="C26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -715,6 +787,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>1954</v>
+      </c>
       <c r="C27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -728,6 +803,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>1955</v>
+      </c>
       <c r="C28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -741,6 +819,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>1956</v>
+      </c>
       <c r="C29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -754,6 +835,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>1957</v>
+      </c>
       <c r="C30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -767,6 +851,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>1958</v>
+      </c>
       <c r="C31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -780,6 +867,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
+      <c r="B32">
+        <v>1959</v>
+      </c>
       <c r="C32">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -793,6 +883,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="B33">
+        <v>1960</v>
+      </c>
       <c r="C33">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -806,6 +899,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
+      <c r="B34">
+        <v>1961</v>
+      </c>
       <c r="C34">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -819,6 +915,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>1962</v>
+      </c>
       <c r="C35">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -832,6 +931,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="B36">
+        <v>1963</v>
+      </c>
       <c r="C36">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -845,6 +947,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="B37">
+        <v>1964</v>
+      </c>
       <c r="C37">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -858,6 +963,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>1965</v>
+      </c>
       <c r="C38">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -871,6 +979,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="B39">
+        <v>1966</v>
+      </c>
       <c r="C39">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -884,6 +995,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>1967</v>
+      </c>
       <c r="C40">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -897,6 +1011,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="B41">
+        <v>1968</v>
+      </c>
       <c r="C41">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -910,6 +1027,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="B42">
+        <v>1969</v>
+      </c>
       <c r="C42">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -923,6 +1043,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="B43">
+        <v>1970</v>
+      </c>
       <c r="C43">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -936,6 +1059,9 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="B44">
+        <v>1971</v>
+      </c>
       <c r="C44">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -949,6 +1075,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="B45">
+        <v>1972</v>
+      </c>
       <c r="C45">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -962,6 +1091,9 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>1973</v>
+      </c>
       <c r="C46">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -975,6 +1107,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>1974</v>
+      </c>
       <c r="C47">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -988,6 +1123,9 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>1975</v>
+      </c>
       <c r="C48">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -1001,6 +1139,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
+      <c r="B49">
+        <v>1976</v>
+      </c>
       <c r="C49">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -1014,6 +1155,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
+      <c r="B50">
+        <v>1977</v>
+      </c>
       <c r="C50">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1027,6 +1171,9 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
+      <c r="B51">
+        <v>1978</v>
+      </c>
       <c r="C51">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -1040,6 +1187,9 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
+      <c r="B52">
+        <v>1979</v>
+      </c>
       <c r="C52">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -1053,6 +1203,9 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
+      <c r="B53">
+        <v>1980</v>
+      </c>
       <c r="C53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -1066,6 +1219,9 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
+      <c r="B54">
+        <v>1981</v>
+      </c>
       <c r="C54">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -1079,6 +1235,9 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
+      <c r="B55">
+        <v>1982</v>
+      </c>
       <c r="C55">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -1092,6 +1251,9 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
+      <c r="B56">
+        <v>1983</v>
+      </c>
       <c r="C56">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -1105,6 +1267,9 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
+      <c r="B57">
+        <v>1984</v>
+      </c>
       <c r="C57">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1118,6 +1283,9 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
+      <c r="B58">
+        <v>1985</v>
+      </c>
       <c r="C58">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -1131,6 +1299,9 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
+      <c r="B59">
+        <v>1986</v>
+      </c>
       <c r="C59">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -1144,6 +1315,9 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
+      <c r="B60">
+        <v>1987</v>
+      </c>
       <c r="C60">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -1157,6 +1331,9 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="B61">
+        <v>1988</v>
+      </c>
       <c r="C61">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -1170,6 +1347,9 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
+      <c r="B62">
+        <v>1989</v>
+      </c>
       <c r="C62">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -1183,6 +1363,9 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
+      <c r="B63">
+        <v>1990</v>
+      </c>
       <c r="C63">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -1196,6 +1379,9 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
+      <c r="B64">
+        <v>1991</v>
+      </c>
       <c r="C64">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1209,6 +1395,9 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
+      <c r="B65">
+        <v>1992</v>
+      </c>
       <c r="C65">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -1222,6 +1411,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
+      <c r="B66">
+        <v>1993</v>
+      </c>
       <c r="C66">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -1235,6 +1427,9 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
+      <c r="B67">
+        <v>1994</v>
+      </c>
       <c r="C67">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -1247,6 +1442,9 @@
       <c r="A68">
         <f t="shared" si="0"/>
         <v>67</v>
+      </c>
+      <c r="B68">
+        <v>1995</v>
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
@@ -1261,6 +1459,9 @@
         <f t="shared" ref="A69:A93" si="2" xml:space="preserve"> A68 + 1</f>
         <v>68</v>
       </c>
+      <c r="B69">
+        <v>1996</v>
+      </c>
       <c r="C69">
         <f t="shared" ref="C69:C93" si="3" xml:space="preserve"> C68 + 1</f>
         <v>68</v>
@@ -1274,6 +1475,9 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
+      <c r="B70">
+        <v>1997</v>
+      </c>
       <c r="C70">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -1287,6 +1491,9 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
+      <c r="B71">
+        <v>1998</v>
+      </c>
       <c r="C71">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -1300,6 +1507,9 @@
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
+      <c r="B72">
+        <v>1999</v>
+      </c>
       <c r="C72">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -1313,6 +1523,9 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
+      <c r="B73">
+        <v>2000</v>
+      </c>
       <c r="C73">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -1326,6 +1539,9 @@
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
+      <c r="B74">
+        <v>2001</v>
+      </c>
       <c r="C74">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -1339,6 +1555,9 @@
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
+      <c r="B75">
+        <v>2002</v>
+      </c>
       <c r="C75">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -1352,6 +1571,9 @@
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
+      <c r="B76">
+        <v>2003</v>
+      </c>
       <c r="C76">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -1365,6 +1587,9 @@
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
+      <c r="B77">
+        <v>2004</v>
+      </c>
       <c r="C77">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -1378,6 +1603,9 @@
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
+      <c r="B78">
+        <v>2005</v>
+      </c>
       <c r="C78">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -1391,6 +1619,9 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
+      <c r="B79">
+        <v>2006</v>
+      </c>
       <c r="C79">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -1404,6 +1635,9 @@
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
+      <c r="B80">
+        <v>2007</v>
+      </c>
       <c r="C80">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -1417,6 +1651,9 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
+      <c r="B81">
+        <v>2008</v>
+      </c>
       <c r="C81">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -1430,6 +1667,9 @@
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
+      <c r="B82">
+        <v>2009</v>
+      </c>
       <c r="C82">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -1443,6 +1683,9 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
+      <c r="B83">
+        <v>2010</v>
+      </c>
       <c r="C83">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -1456,6 +1699,9 @@
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
+      <c r="B84">
+        <v>2011</v>
+      </c>
       <c r="C84">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -1469,6 +1715,9 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
+      <c r="B85">
+        <v>2012</v>
+      </c>
       <c r="C85">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -1482,6 +1731,9 @@
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
+      <c r="B86">
+        <v>2013</v>
+      </c>
       <c r="C86">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -1495,6 +1747,9 @@
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
+      <c r="B87">
+        <v>2014</v>
+      </c>
       <c r="C87">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -1508,6 +1763,9 @@
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
+      <c r="B88">
+        <v>2015</v>
+      </c>
       <c r="C88">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -1521,6 +1779,9 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
+      <c r="B89">
+        <v>2016</v>
+      </c>
       <c r="C89">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -1534,6 +1795,9 @@
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
+      <c r="B90">
+        <v>2017</v>
+      </c>
       <c r="C90">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -1547,6 +1811,9 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
+      <c r="B91">
+        <v>2018</v>
+      </c>
       <c r="C91">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -1560,6 +1827,9 @@
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
+      <c r="B92">
+        <v>2019</v>
+      </c>
       <c r="C92">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -1573,8 +1843,8 @@
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>4</v>
+      <c r="B93">
+        <v>2020</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
@@ -1582,6 +1852,48 @@
       </c>
       <c r="D93">
         <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>1945</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1955</v>
+      </c>
+      <c r="C95">
+        <v>28</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>2019</v>
+      </c>
+      <c r="C96">
+        <v>92</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
